--- a/TestPacks/Manage_Users.xlsx
+++ b/TestPacks/Manage_Users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>METER</t>
   </si>
@@ -34,9 +34,6 @@
     <t>BILLING PROFILE</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>STELLENBOSCH</t>
   </si>
   <si>
@@ -50,6 +47,24 @@
   </si>
   <si>
     <t>Tier Two Account</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>TARIFF TYPE</t>
+  </si>
+  <si>
+    <t>14293374246</t>
+  </si>
+  <si>
+    <t>Syntell 50 Free Units</t>
+  </si>
+  <si>
+    <t>14293374253</t>
+  </si>
+  <si>
+    <t>Syntell Monthly Service Charge</t>
   </si>
 </sst>
 </file>
@@ -93,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,23 +417,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,45 +453,54 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2354864</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>125879249</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
